--- a/biology/Biochimie/Respiration_aérobie/Respiration_aérobie.xlsx
+++ b/biology/Biochimie/Respiration_aérobie/Respiration_aérobie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Respiration_a%C3%A9robie</t>
+          <t>Respiration_aérobie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La respiration aérobie est un mode de respiration utilisant l'oxygène comme comburant.
 Lors de la glycolyse, le cycle de Krebs, la bêta-oxydation et les autres processus de dégradation des biomolécules, il y a production de coenzymes réduits (notamment NADH). 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Respiration_a%C3%A9robie</t>
+          <t>Respiration_aérobie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>La phosphorylation oxydative</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour simplifier (en détail dans l'article consacré à la chaîne respiratoire) :
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Respiration_a%C3%A9robie</t>
+          <t>Respiration_aérobie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>La voie oxydative directe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette voie est beaucoup plus courte en transporteur d'électrons, il y a production d'eau oxygénée. 
 Cette voie est peu énergétique. Aussi, une bactérie possédant une telle voie sans posséder de catalase est anaérobie stricte car l'oxygène induirait la production d'eau oxygénée toxique.
